--- a/Bets_DB_Telegram.xlsx
+++ b/Bets_DB_Telegram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:S1"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,6 +525,615 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-04-10 13:59:25.711447</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Football</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Armenia</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Premier League</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Lernayin Artsakh Fc - FC Ararat-Armenia</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.04 15:00</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>User2</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>10.04.2023 14:03</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>(O/U) ТБ 2.0</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>1.393</v>
+      </c>
+      <c r="L2" t="n">
+        <v>349.62</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>https://expari.com/topic/1484919</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>User2</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>10.04.2023 14:03</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>(O/U) ТБ 2.0</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.393</v>
+      </c>
+      <c r="R2" t="n">
+        <v>349.62</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>https://expari.com/topic/1484925</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-04-10 14:12:04.874325</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Football</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>First Division A</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Standard Liege - Royal Charleroi SC</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>14.04 21:45</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>User2</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>10.04.2023 14:03</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>(1x2) Хозяева</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L3" t="n">
+        <v>275.33</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>https://expari.com/topic/1484921</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>User2</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>10.04.2023 14:03</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>(1x2) Хозяева</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R3" t="n">
+        <v>274.81</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>https://expari.com/topic/1484945</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-04-10 14:13:01.340560</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Football</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Serie B</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vila Nova FC GO - Gremio Novorizontino SP</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15.04 22:00</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>User2</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>10.04.2023 14:08</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>(O/U) ТБ 3.5</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L4" t="n">
+        <v>136.43</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>https://expari.com/topic/1484935</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>User2</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>10.04.2023 14:08</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>(O/U) ТБ 3.5</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="R4" t="n">
+        <v>136.43</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>https://expari.com/topic/1484949</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2023-04-10 14:14:56.976898</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Football</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Azerbaijan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Division 1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Gabala Fk-2 - Moik Baku</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>11.04 15:00</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>User2</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>10.04.2023 14:08</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>(O/U) ТМ 2.5</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="L5" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>https://expari.com/topic/1484933</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>User2</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>10.04.2023 14:08</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>(O/U) ТМ 2.5</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R5" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>https://expari.com/topic/1484953</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2023-04-10 14:15:47.725311</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ABA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liga 2 International</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kk Podgorica - KK Zlatibor</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>12.04 13:00</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>User2</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>10.04.2023 14:08</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>(АН) Хозяева +2.0</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1.666</v>
+      </c>
+      <c r="L6" t="n">
+        <v>137.54</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>https://expari.com/topic/1484937</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>User2</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>10.04.2023 14:08</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>(АН) Хозяева +2.0</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.666</v>
+      </c>
+      <c r="R6" t="n">
+        <v>137.54</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>https://expari.com/topic/1484955</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2023-04-10 14:19:55.075585</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Football</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>A League</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Western Sydney Wanderers - Melbourne Victory</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15.04 12:45</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>User2</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>10.04.2023 14:23</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Хозяева ТМ 1.5</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L7" t="n">
+        <v>85.88</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>https://expari.com/topic/1484959</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>User2</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>10.04.2023 14:23</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Хозяева ТМ 1.5</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R7" t="n">
+        <v>85.88</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>https://expari.com/topic/1484967</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2023-04-10 14:20:22.757559</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Tennis</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ATP Challenger Sarasota</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>R1</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Genaro Alberto Olivieri - Christian Harrison</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>10.04 17:00</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>User2</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>10.04.2023 14:23</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>(O/U) ТМ 2.5</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1.568</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1817.55</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>https://expari.com/topic/1484961</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>User2</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>10.04.2023 14:23</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>(O/U) ТМ 2.5</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.568</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1817.55</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>https://expari.com/topic/1484969</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
